--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,24 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>GS2303100090B001</t>
-  </si>
-  <si>
-    <t>GS2303170042B001</t>
-  </si>
-  <si>
-    <t>GS2303170043B001</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>GS2307210003J011</t>
+  </si>
+  <si>
+    <t>GS2307210003J007</t>
+  </si>
+  <si>
+    <t>GS2307210003J001</t>
+  </si>
+  <si>
+    <t>GS2307210003J010</t>
+  </si>
+  <si>
+    <t>GS2307210003J012</t>
+  </si>
+  <si>
+    <t>GS2307210003J013</t>
+  </si>
+  <si>
+    <t>GS2307210003J004</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-11</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-7</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-1</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-10</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-12</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-13</t>
+  </si>
+  <si>
+    <t>KA237L0003-L000J006-APP-A-4</t>
   </si>
 </sst>
 </file>
@@ -363,34 +387,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,48 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>GS2307210003J011</t>
-  </si>
-  <si>
-    <t>GS2307210003J007</t>
-  </si>
-  <si>
-    <t>GS2307210003J001</t>
-  </si>
-  <si>
-    <t>GS2307210003J010</t>
-  </si>
-  <si>
-    <t>GS2307210003J012</t>
-  </si>
-  <si>
-    <t>GS2307210003J013</t>
-  </si>
-  <si>
-    <t>GS2307210003J004</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-11</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-7</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-1</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-10</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-12</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-13</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+  <si>
+    <t>GS2308230003J003</t>
+  </si>
+  <si>
+    <t>GS2308230003J031</t>
+  </si>
+  <si>
+    <t>GS2308230003J006</t>
+  </si>
+  <si>
+    <t>GS2308230003J009</t>
+  </si>
+  <si>
+    <t>GS2308230003J012</t>
+  </si>
+  <si>
+    <t>GS2308230003J015</t>
+  </si>
+  <si>
+    <t>GS2308230003J018</t>
+  </si>
+  <si>
+    <t>GS2308230003J021</t>
+  </si>
+  <si>
+    <t>GS2308230003J030</t>
+  </si>
+  <si>
+    <t>GS2308230003J024</t>
+  </si>
+  <si>
+    <t>GS2308230003J027</t>
+  </si>
+  <si>
+    <t>GS2308230003J029</t>
+  </si>
+  <si>
+    <t>GS2308230003J001</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-3</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-31</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-6</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-9</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-12</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-15</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-18</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-21</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-30</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-24</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-27</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-29</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -387,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1">
         <v>5</v>
@@ -406,17 +448,17 @@
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>7</v>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
       </c>
       <c r="G1">
         <v>5</v>
       </c>
-      <c r="H1">
-        <v>4</v>
+      <c r="H1" t="s">
+        <v>26</v>
       </c>
       <c r="I1">
         <v>32</v>
@@ -427,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -435,17 +477,17 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>4</v>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
       <c r="I2">
         <v>32</v>
@@ -456,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -464,17 +506,17 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>4</v>
+      <c r="H3" t="s">
+        <v>26</v>
       </c>
       <c r="I3">
         <v>32</v>
@@ -485,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -493,17 +535,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>4</v>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
       <c r="I4">
         <v>32</v>
@@ -514,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -522,17 +564,17 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>4</v>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
         <v>32</v>
@@ -543,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -551,17 +593,17 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>4</v>
+      <c r="H6" t="s">
+        <v>26</v>
       </c>
       <c r="I6">
         <v>32</v>
@@ -572,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -580,19 +622,193 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
         <v>32</v>
       </c>
     </row>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>GS2308230007A001</t>
-  </si>
-  <si>
-    <t>GS2308230007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>FJ2308240005</t>
+  </si>
+  <si>
+    <t>FJ2308240006</t>
+  </si>
+  <si>
+    <t>FJ2308240007</t>
+  </si>
+  <si>
+    <t>FJ2308240008</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -357,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -376,7 +388,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,30 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>FJ2308240005</t>
+    <t>ZC2308240031</t>
   </si>
   <si>
-    <t>FJ2308240006</t>
-  </si>
-  <si>
-    <t>FJ2308240007</t>
-  </si>
-  <si>
-    <t>FJ2308240008</t>
+    <t>ZC2308240031Y001</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -369,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +368,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -388,23 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ZC2308240031</t>
-  </si>
-  <si>
-    <t>ZC2308240031Y001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HM2308250008</t>
+  </si>
+  <si>
+    <t>HM2308250007</t>
+  </si>
+  <si>
+    <t>HM2308250008Y001</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -376,7 +382,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>HM2308250008</t>
-  </si>
-  <si>
-    <t>HM2308250007</t>
-  </si>
-  <si>
-    <t>HM2308250008Y001</t>
+    <t>ZC2308250001</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -363,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,23 +362,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ZC2308250001</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,22 +408,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>GS2309050072A001</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050072</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309050073A001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2309050073A002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2309050074</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GS2309050075</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GS2309050077</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,34 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>GS2309050072B008</t>
+  </si>
+  <si>
+    <t>GS2309050072B001</t>
+  </si>
+  <si>
+    <t>GS2309050073B001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +68,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,104 +362,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>GS2309050072A001</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309050072</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2309050073A001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GS2309050073A002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GS2309050074</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GS2309050075</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GS2309050077</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>GS2309050072B008</t>
-  </si>
-  <si>
-    <t>GS2309050072B001</t>
-  </si>
-  <si>
-    <t>GS2309050073B001</t>
+    <t>GS2309060004B001</t>
+  </si>
+  <si>
+    <t>GS2309060005B001</t>
+  </si>
+  <si>
+    <t>GS2309060004B004</t>
   </si>
   <si>
     <t>1</t>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,55 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>GS2309060004B001</t>
-  </si>
-  <si>
-    <t>GS2309060005B001</t>
-  </si>
-  <si>
-    <t>GS2309060004B004</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,38 +408,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HH2309080001</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HH2309080003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HH2309080002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HH2309080004Y001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HH2309080004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HH2309080001</t>
+          <t>GS2309080092B002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -433,54 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HH2309080003</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HH2309080002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HH2309080004Y001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HH2309080004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GS2309080092B002</t>
+          <t>GS2309110001B002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GS2309110001B002</t>
+          <t>GS2309120057B002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GS2309120057B002</t>
+          <t>GS2309150034B002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,48 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GS2309150034B002</t>
+          <t>HM2308250010</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HM2308250009</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HM2308250011Y001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HM2308250011</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,34 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>FJ2309120002</t>
+  </si>
+  <si>
+    <t>FJ2309220010</t>
+  </si>
+  <si>
+    <t>FJ2309220011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +68,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,80 +362,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>HH2309080001</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HH2309080003</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HH2309080002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HH2309080004Y001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HH2309080004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,55 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>FJ2309120002</t>
-  </si>
-  <si>
-    <t>FJ2309220010</t>
-  </si>
-  <si>
-    <t>FJ2309220011</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,38 +408,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>GS2401150005B002</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>GS2310270044B002</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +56,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,32 +350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>GS2401150005B002</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>GS2310270044B002</t>
+    <t>GS2312130003B003</t>
   </si>
   <si>
     <t>1</t>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>GS2312130003B003</t>
+    <t>GS2401160007B002</t>
   </si>
   <si>
     <t>1</t>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -14,12 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>GS2401160007B002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>GS2312220002</t>
+  </si>
+  <si>
+    <t>GS2401160005</t>
+  </si>
+  <si>
+    <t>GS2401160006</t>
+  </si>
+  <si>
+    <t>GS2401100001</t>
+  </si>
+  <si>
+    <t>GS2302150002</t>
+  </si>
+  <si>
+    <t>GS2302150002A001</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -351,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -362,7 +392,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -1,73 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>GS2312220002</t>
-  </si>
-  <si>
-    <t>GS2401160005</t>
-  </si>
-  <si>
-    <t>GS2401160006</t>
-  </si>
-  <si>
-    <t>GS2401100001</t>
-  </si>
-  <si>
-    <t>GS2302150002</t>
-  </si>
-  <si>
-    <t>GS2302150002A001</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,62 +408,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>GS2404290625B002</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/position_in_box_lims.xlsx
+++ b/data/excel_doc/position_in_box_lims.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GS2404290625B002</t>
+          <t>GS2405210045B002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
